--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>673141</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>西部利得景程灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>673141</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合A</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>68.92</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -894,15 +1044,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>68.92</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
@@ -917,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1096,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -968,15 +1136,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -996,15 +1174,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.60</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1024,15 +1212,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.39</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1052,15 +1250,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.39</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1275,4 +1276,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1522,4 +1523,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1883,4 +1884,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1892,7 +1893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,17 +1904,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1923,14 +1944,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1939,14 +1982,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1955,11 +2088,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0.23</v>
@@ -1971,13 +2104,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2025,7 +2026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,17 +2037,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2056,14 +2077,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2072,14 +2115,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -2088,14 +2221,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -2104,11 +2237,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>0.23</v>
@@ -2120,13 +2253,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,621 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0733</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0733</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6167</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3886</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3364</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1080,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1131,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>014179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>中银证券远见价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1169,112 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>014180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>中银证券远见价值混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1339,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>010174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大智享债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0819</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1377,150 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>010175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大智享债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1945,36 +1263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010174</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大智享债券A</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0819</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1983,36 +1301,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010175</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大智享债券C</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>87.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2077,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014179</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券远见价值混合A</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2115,36 +1547,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014180</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券远见价值混合C</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2158,128 +1666,620 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.11</v>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002035-华帝股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,11 +552,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0.23</v>
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.11</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014179</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券远见价值混合A</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +694,226 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014180</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券远见价值混合C</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -771,32 +978,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010174</t>
+          <t>014179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大智享债券A</t>
+          <t>中银证券远见价值混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -809,32 +1016,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010175</t>
+          <t>014180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大智享债券C</t>
+          <t>中银证券远见价值混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>86.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -847,6 +1054,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1206,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
